--- a/County-Type-Share.xlsx
+++ b/County-Type-Share.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ally/Desktop/projects/capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C76BB28-81DE-9E4B-ABEB-06179825AAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A8530F-4E9E-5344-B278-1B0647E31101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31700" yWindow="300" windowWidth="25360" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32440" yWindow="-240" windowWidth="25360" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9548,18 +9548,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -9574,13 +9568,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9920,10 +9915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3158"/>
+  <dimension ref="A1:H3158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A2382" workbookViewId="0">
+      <selection activeCell="G2802" sqref="G2802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -57496,7 +57491,7 @@
       <c r="F2800" s="1"/>
       <c r="G2800" s="1"/>
     </row>
-    <row r="2801" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2801" s="1" t="s">
         <v>2818</v>
       </c>
@@ -57513,7 +57508,7 @@
       <c r="F2801" s="1"/>
       <c r="G2801" s="1"/>
     </row>
-    <row r="2802" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2802" s="1" t="s">
         <v>2819</v>
       </c>
@@ -57530,7 +57525,7 @@
       <c r="F2802" s="1"/>
       <c r="G2802" s="1"/>
     </row>
-    <row r="2803" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2803" s="1" t="s">
         <v>2820</v>
       </c>
@@ -57547,7 +57542,7 @@
       <c r="F2803" s="1"/>
       <c r="G2803" s="1"/>
     </row>
-    <row r="2804" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2804" s="1" t="s">
         <v>2821</v>
       </c>
@@ -57564,7 +57559,7 @@
       <c r="F2804" s="1"/>
       <c r="G2804" s="1"/>
     </row>
-    <row r="2805" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2805" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2805" s="1" t="s">
         <v>2822</v>
       </c>
@@ -57581,7 +57576,7 @@
       <c r="F2805" s="1"/>
       <c r="G2805" s="1"/>
     </row>
-    <row r="2806" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2806" s="1" t="s">
         <v>2823</v>
       </c>
@@ -57598,7 +57593,7 @@
       <c r="F2806" s="1"/>
       <c r="G2806" s="1"/>
     </row>
-    <row r="2807" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2807" s="1" t="s">
         <v>2824</v>
       </c>
@@ -57615,7 +57610,7 @@
       <c r="F2807" s="1"/>
       <c r="G2807" s="1"/>
     </row>
-    <row r="2808" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2808" s="1" t="s">
         <v>2825</v>
       </c>
@@ -57628,11 +57623,12 @@
       <c r="D2808" s="1">
         <v>11</v>
       </c>
-      <c r="E2808" s="1"/>
-      <c r="F2808" s="1"/>
-      <c r="G2808" s="1"/>
-    </row>
-    <row r="2809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2808" s="5"/>
+      <c r="F2808" s="5"/>
+      <c r="G2808" s="5"/>
+      <c r="H2808" s="6"/>
+    </row>
+    <row r="2809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2809" s="1" t="s">
         <v>2826</v>
       </c>
@@ -57645,11 +57641,12 @@
       <c r="D2809" s="1">
         <v>11</v>
       </c>
-      <c r="E2809" s="1"/>
-      <c r="F2809" s="1"/>
-      <c r="G2809" s="1"/>
-    </row>
-    <row r="2810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2809" s="5"/>
+      <c r="F2809" s="5"/>
+      <c r="G2809" s="5"/>
+      <c r="H2809" s="6"/>
+    </row>
+    <row r="2810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2810" s="1" t="s">
         <v>2827</v>
       </c>
@@ -57662,11 +57659,12 @@
       <c r="D2810" s="1">
         <v>11</v>
       </c>
-      <c r="E2810" s="1"/>
+      <c r="E2810" s="5"/>
       <c r="F2810" s="5"/>
       <c r="G2810" s="5"/>
-    </row>
-    <row r="2811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2810" s="6"/>
+    </row>
+    <row r="2811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2811" s="1" t="s">
         <v>2828</v>
       </c>
@@ -57679,11 +57677,12 @@
       <c r="D2811" s="1">
         <v>11</v>
       </c>
-      <c r="E2811" s="1"/>
+      <c r="E2811" s="5"/>
       <c r="F2811" s="5"/>
       <c r="G2811" s="5"/>
-    </row>
-    <row r="2812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2811" s="6"/>
+    </row>
+    <row r="2812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2812" s="1" t="s">
         <v>2829</v>
       </c>
@@ -57696,11 +57695,12 @@
       <c r="D2812" s="1">
         <v>11</v>
       </c>
-      <c r="E2812" s="1"/>
-      <c r="F2812" s="1"/>
-      <c r="G2812" s="1"/>
-    </row>
-    <row r="2813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2812" s="5"/>
+      <c r="F2812" s="5"/>
+      <c r="G2812" s="5"/>
+      <c r="H2812" s="6"/>
+    </row>
+    <row r="2813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2813" s="1" t="s">
         <v>2830</v>
       </c>
@@ -57713,11 +57713,12 @@
       <c r="D2813" s="1">
         <v>11</v>
       </c>
-      <c r="E2813" s="1"/>
-      <c r="F2813" s="1"/>
-      <c r="G2813" s="1"/>
-    </row>
-    <row r="2814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2813" s="5"/>
+      <c r="F2813" s="5"/>
+      <c r="G2813" s="5"/>
+      <c r="H2813" s="6"/>
+    </row>
+    <row r="2814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2814" s="1" t="s">
         <v>2831</v>
       </c>
@@ -57730,11 +57731,12 @@
       <c r="D2814" s="1">
         <v>11</v>
       </c>
-      <c r="E2814" s="1"/>
+      <c r="E2814" s="5"/>
       <c r="F2814" s="5"/>
       <c r="G2814" s="5"/>
-    </row>
-    <row r="2815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2814" s="6"/>
+    </row>
+    <row r="2815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2815" s="1" t="s">
         <v>2832</v>
       </c>
@@ -57747,11 +57749,12 @@
       <c r="D2815" s="1">
         <v>11</v>
       </c>
-      <c r="E2815" s="1"/>
-      <c r="F2815" s="1"/>
-      <c r="G2815" s="1"/>
-    </row>
-    <row r="2816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2815" s="5"/>
+      <c r="F2815" s="5"/>
+      <c r="G2815" s="5"/>
+      <c r="H2815" s="6"/>
+    </row>
+    <row r="2816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2816" s="1" t="s">
         <v>2833</v>
       </c>
@@ -57764,11 +57767,12 @@
       <c r="D2816" s="1">
         <v>11</v>
       </c>
-      <c r="E2816" s="1"/>
+      <c r="E2816" s="5"/>
       <c r="F2816" s="5"/>
       <c r="G2816" s="5"/>
-    </row>
-    <row r="2817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2816" s="6"/>
+    </row>
+    <row r="2817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2817" s="1" t="s">
         <v>2834</v>
       </c>
@@ -57781,11 +57785,12 @@
       <c r="D2817" s="1">
         <v>11</v>
       </c>
-      <c r="E2817" s="1"/>
+      <c r="E2817" s="5"/>
       <c r="F2817" s="5"/>
       <c r="G2817" s="5"/>
-    </row>
-    <row r="2818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2817" s="6"/>
+    </row>
+    <row r="2818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2818" s="1" t="s">
         <v>2835</v>
       </c>
@@ -57798,11 +57803,12 @@
       <c r="D2818" s="1">
         <v>11</v>
       </c>
-      <c r="E2818" s="1"/>
-      <c r="F2818" s="1"/>
-      <c r="G2818" s="1"/>
-    </row>
-    <row r="2819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2818" s="5"/>
+      <c r="F2818" s="5"/>
+      <c r="G2818" s="5"/>
+      <c r="H2818" s="6"/>
+    </row>
+    <row r="2819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2819" s="1" t="s">
         <v>2836</v>
       </c>
@@ -57815,11 +57821,12 @@
       <c r="D2819" s="1">
         <v>12</v>
       </c>
-      <c r="E2819" s="1"/>
-      <c r="F2819" s="1"/>
-      <c r="G2819" s="1"/>
-    </row>
-    <row r="2820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2819" s="5"/>
+      <c r="F2819" s="5"/>
+      <c r="G2819" s="5"/>
+      <c r="H2819" s="6"/>
+    </row>
+    <row r="2820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2820" s="1" t="s">
         <v>2837</v>
       </c>
@@ -57832,11 +57839,12 @@
       <c r="D2820" s="1">
         <v>12</v>
       </c>
-      <c r="E2820" s="1"/>
-      <c r="F2820" s="1"/>
-      <c r="G2820" s="1"/>
-    </row>
-    <row r="2821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2820" s="5"/>
+      <c r="F2820" s="5"/>
+      <c r="G2820" s="5"/>
+      <c r="H2820" s="6"/>
+    </row>
+    <row r="2821" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2821" s="1" t="s">
         <v>2838</v>
       </c>
@@ -57849,11 +57857,12 @@
       <c r="D2821" s="1">
         <v>12</v>
       </c>
-      <c r="E2821" s="1"/>
-      <c r="F2821" s="1"/>
-      <c r="G2821" s="1"/>
-    </row>
-    <row r="2822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2821" s="5"/>
+      <c r="F2821" s="5"/>
+      <c r="G2821" s="5"/>
+      <c r="H2821" s="6"/>
+    </row>
+    <row r="2822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2822" s="1" t="s">
         <v>2839</v>
       </c>
@@ -57870,7 +57879,7 @@
       <c r="F2822" s="1"/>
       <c r="G2822" s="1"/>
     </row>
-    <row r="2823" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2823" s="1" t="s">
         <v>2840</v>
       </c>
@@ -57887,7 +57896,7 @@
       <c r="F2823" s="1"/>
       <c r="G2823" s="1"/>
     </row>
-    <row r="2824" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2824" s="1" t="s">
         <v>2841</v>
       </c>
@@ -57904,7 +57913,7 @@
       <c r="F2824" s="1"/>
       <c r="G2824" s="1"/>
     </row>
-    <row r="2825" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2825" s="1" t="s">
         <v>2842</v>
       </c>
@@ -57921,7 +57930,7 @@
       <c r="F2825" s="1"/>
       <c r="G2825" s="1"/>
     </row>
-    <row r="2826" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2826" s="1" t="s">
         <v>2843</v>
       </c>
@@ -57938,7 +57947,7 @@
       <c r="F2826" s="1"/>
       <c r="G2826" s="1"/>
     </row>
-    <row r="2827" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2827" s="1" t="s">
         <v>2844</v>
       </c>
@@ -57955,7 +57964,7 @@
       <c r="F2827" s="1"/>
       <c r="G2827" s="1"/>
     </row>
-    <row r="2828" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2828" s="1" t="s">
         <v>2845</v>
       </c>
@@ -57972,7 +57981,7 @@
       <c r="F2828" s="1"/>
       <c r="G2828" s="1"/>
     </row>
-    <row r="2829" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2829" s="1" t="s">
         <v>2846</v>
       </c>
@@ -57989,7 +57998,7 @@
       <c r="F2829" s="1"/>
       <c r="G2829" s="1"/>
     </row>
-    <row r="2830" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2830" s="1" t="s">
         <v>2847</v>
       </c>
@@ -58006,7 +58015,7 @@
       <c r="F2830" s="1"/>
       <c r="G2830" s="1"/>
     </row>
-    <row r="2831" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2831" s="1" t="s">
         <v>2848</v>
       </c>
@@ -58023,7 +58032,7 @@
       <c r="F2831" s="1"/>
       <c r="G2831" s="1"/>
     </row>
-    <row r="2832" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2832" s="1" t="s">
         <v>2849</v>
       </c>
@@ -63485,7 +63494,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
